--- a/tests/testthat/testdata_DSR_ISR.xlsx
+++ b/tests/testthat/testdata_DSR_ISR.xlsx
@@ -5,24 +5,25 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgina.Anderson\Documents\R\Projects\PHEindicatormethods\tests\testthat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annabel.Westermann\Documents\R\Projects\PHEindicatormethods\tests\testthat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26157586-1C9A-4014-9B3A-152232D3B23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2350B830-A37B-42B4-BC7E-33646F468262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="719" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="719" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata_multigroup" sheetId="16" r:id="rId1"/>
     <sheet name="testdata_multiarea_isr" sheetId="15" r:id="rId2"/>
-    <sheet name="testdata_multiarea" sheetId="5" r:id="rId3"/>
-    <sheet name="testdata_1976" sheetId="12" r:id="rId4"/>
-    <sheet name="refdata" sheetId="14" r:id="rId5"/>
-    <sheet name="testresults_ISR" sheetId="13" r:id="rId6"/>
-    <sheet name="testresults_DSR" sheetId="4" r:id="rId7"/>
-    <sheet name="testdata_err1" sheetId="7" r:id="rId8"/>
-    <sheet name="testdata_err2" sheetId="8" r:id="rId9"/>
-    <sheet name="testdata_err3" sheetId="9" r:id="rId10"/>
+    <sheet name="testdata_multiarea_lookup" sheetId="17" r:id="rId3"/>
+    <sheet name="testdata_multiarea" sheetId="5" r:id="rId4"/>
+    <sheet name="testdata_1976" sheetId="12" r:id="rId5"/>
+    <sheet name="refdata" sheetId="14" r:id="rId6"/>
+    <sheet name="testresults_ISR" sheetId="13" r:id="rId7"/>
+    <sheet name="testresults_DSR" sheetId="4" r:id="rId8"/>
+    <sheet name="testdata_err1" sheetId="7" r:id="rId9"/>
+    <sheet name="testdata_err2" sheetId="8" r:id="rId10"/>
+    <sheet name="testdata_err3" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="58">
   <si>
     <t>0-4</t>
   </si>
@@ -2678,6 +2679,467 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="4">
+        <v>127</v>
+      </c>
+      <c r="C2" s="5">
+        <v>636</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="10">
+        <v>25</v>
+      </c>
+      <c r="C3" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="10">
+        <v>18</v>
+      </c>
+      <c r="C4" s="11">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="4">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="4">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="4">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="4">
+        <v>48</v>
+      </c>
+      <c r="C8" s="5">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="4">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="4">
+        <v>32</v>
+      </c>
+      <c r="C11" s="5">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="4">
+        <v>32</v>
+      </c>
+      <c r="C12" s="5">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="4">
+        <v>34</v>
+      </c>
+      <c r="C13" s="5">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="4">
+        <v>45</v>
+      </c>
+      <c r="C14" s="5">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="4">
+        <v>65</v>
+      </c>
+      <c r="C15" s="5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="4">
+        <v>38</v>
+      </c>
+      <c r="C16" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="4">
+        <v>68</v>
+      </c>
+      <c r="C17" s="5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="4">
+        <v>74</v>
+      </c>
+      <c r="C18" s="5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="4">
+        <v>82</v>
+      </c>
+      <c r="C19" s="5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="4">
+        <v>91</v>
+      </c>
+      <c r="C20" s="5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="7">
+        <v>12</v>
+      </c>
+      <c r="C21" s="8">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="4">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="4">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="4">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="4">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="4">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2</v>
+      </c>
+      <c r="C28" s="5">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="4">
+        <v>2</v>
+      </c>
+      <c r="C29" s="5">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="4">
+        <v>3</v>
+      </c>
+      <c r="C30" s="5">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="4">
+        <v>4</v>
+      </c>
+      <c r="C31" s="5">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="4">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="4">
+        <v>6</v>
+      </c>
+      <c r="C33" s="5">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="4">
+        <v>8</v>
+      </c>
+      <c r="C34" s="5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="4">
+        <v>5</v>
+      </c>
+      <c r="C35" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="4">
+        <v>6</v>
+      </c>
+      <c r="C36" s="5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="4">
+        <v>5</v>
+      </c>
+      <c r="C37" s="5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="4">
+        <v>5</v>
+      </c>
+      <c r="C38" s="5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="4">
+        <v>4</v>
+      </c>
+      <c r="C39" s="5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:D22"/>
@@ -2993,8 +3455,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4160,6 +4622,64 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3582517-898A-4E83-8FF5-D6610E682911}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>91</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D58"/>
@@ -4988,7 +5508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D22"/>
@@ -5292,7 +5812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D20"/>
@@ -5529,12 +6049,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -6114,7 +6634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J9"/>
@@ -6398,7 +6918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:D22"/>
@@ -6708,465 +7228,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:F41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="4">
-        <v>127</v>
-      </c>
-      <c r="C2" s="5">
-        <v>636</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="10">
-        <v>25</v>
-      </c>
-      <c r="C3" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="10">
-        <v>18</v>
-      </c>
-      <c r="C4" s="11">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="4">
-        <v>21</v>
-      </c>
-      <c r="C5" s="5">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="4">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="4">
-        <v>27</v>
-      </c>
-      <c r="C7" s="5">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="4">
-        <v>48</v>
-      </c>
-      <c r="C8" s="5">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4">
-        <v>27</v>
-      </c>
-      <c r="C9" s="5">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="4">
-        <v>29</v>
-      </c>
-      <c r="C10" s="5">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="4">
-        <v>32</v>
-      </c>
-      <c r="C11" s="5">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="4">
-        <v>32</v>
-      </c>
-      <c r="C12" s="5">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="4">
-        <v>34</v>
-      </c>
-      <c r="C13" s="5">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="4">
-        <v>45</v>
-      </c>
-      <c r="C14" s="5">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="4">
-        <v>65</v>
-      </c>
-      <c r="C15" s="5">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="4">
-        <v>38</v>
-      </c>
-      <c r="C16" s="5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="4">
-        <v>68</v>
-      </c>
-      <c r="C17" s="5">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="4">
-        <v>74</v>
-      </c>
-      <c r="C18" s="5">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="4">
-        <v>82</v>
-      </c>
-      <c r="C19" s="5">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="4">
-        <v>91</v>
-      </c>
-      <c r="C20" s="5">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="7">
-        <v>12</v>
-      </c>
-      <c r="C21" s="8">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="4">
-        <v>4</v>
-      </c>
-      <c r="C22" s="5">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="4">
-        <v>3</v>
-      </c>
-      <c r="C23" s="5">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="4">
-        <v>2</v>
-      </c>
-      <c r="C24" s="5">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="4">
-        <v>3</v>
-      </c>
-      <c r="C25" s="5">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="4">
-        <v>4</v>
-      </c>
-      <c r="C26" s="5">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="4">
-        <v>8</v>
-      </c>
-      <c r="C27" s="5">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="4">
-        <v>2</v>
-      </c>
-      <c r="C28" s="5">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="4">
-        <v>2</v>
-      </c>
-      <c r="C29" s="5">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="4">
-        <v>3</v>
-      </c>
-      <c r="C30" s="5">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="4">
-        <v>4</v>
-      </c>
-      <c r="C31" s="5">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="4">
-        <v>5</v>
-      </c>
-      <c r="C32" s="5">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="4">
-        <v>6</v>
-      </c>
-      <c r="C33" s="5">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="4">
-        <v>8</v>
-      </c>
-      <c r="C34" s="5">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="4">
-        <v>5</v>
-      </c>
-      <c r="C35" s="5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="4">
-        <v>6</v>
-      </c>
-      <c r="C36" s="5">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="4">
-        <v>5</v>
-      </c>
-      <c r="C37" s="5">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="4">
-        <v>5</v>
-      </c>
-      <c r="C38" s="5">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="4">
-        <v>4</v>
-      </c>
-      <c r="C39" s="5">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/tests/testthat/testdata_DSR_ISR.xlsx
+++ b/tests/testthat/testdata_DSR_ISR.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annabel.Westermann\Documents\R\Projects\PHEindicatormethods\tests\testthat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgina.Anderson\Documents\R\Projects\PHEindicatormethods\tests\testthat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2350B830-A37B-42B4-BC7E-33646F468262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59134A58-9D58-4537-8F71-7ED78C245F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="719" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="719" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="testdata_multigroup" sheetId="16" r:id="rId1"/>
-    <sheet name="testdata_multiarea_isr" sheetId="15" r:id="rId2"/>
-    <sheet name="testdata_multiarea_lookup" sheetId="17" r:id="rId3"/>
-    <sheet name="testdata_multiarea" sheetId="5" r:id="rId4"/>
+    <sheet name="testdata_multiarea_isr" sheetId="15" r:id="rId1"/>
+    <sheet name="testdata_multiarea_lookup" sheetId="17" r:id="rId2"/>
+    <sheet name="testdata_multiarea" sheetId="5" r:id="rId3"/>
+    <sheet name="testdata_nonindepe" sheetId="18" r:id="rId4"/>
     <sheet name="testdata_1976" sheetId="12" r:id="rId5"/>
     <sheet name="refdata" sheetId="14" r:id="rId6"/>
     <sheet name="testresults_ISR" sheetId="13" r:id="rId7"/>
@@ -24,6 +24,7 @@
     <sheet name="testdata_err1" sheetId="7" r:id="rId9"/>
     <sheet name="testdata_err2" sheetId="8" r:id="rId10"/>
     <sheet name="testdata_err3" sheetId="9" r:id="rId11"/>
+    <sheet name="testdata_err4" sheetId="19" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="68">
   <si>
     <t>0-4</t>
   </si>
@@ -187,9 +188,6 @@
     <t>Exact</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
     <t>dsr NA for total count &lt; 10</t>
   </si>
   <si>
@@ -219,6 +217,39 @@
   <si>
     <t>indirectly standardised ratio x 1</t>
   </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>f3</t>
+  </si>
+  <si>
+    <t>f4</t>
+  </si>
+  <si>
+    <t>testdata_nonind_small</t>
+  </si>
+  <si>
+    <t>testdata_nonind_dummy</t>
+  </si>
+  <si>
+    <t>testdata_nonind_big</t>
+  </si>
+  <si>
+    <t>00-04</t>
+  </si>
+  <si>
+    <t>05-09</t>
+  </si>
+  <si>
+    <t>Dobson, with confidence adjusted for non-independent events</t>
+  </si>
+  <si>
+    <t>testdata_nonind_tiny</t>
+  </si>
 </sst>
 </file>
 
@@ -230,7 +261,7 @@
     <numFmt numFmtId="166" formatCode="??,??0"/>
     <numFmt numFmtId="167" formatCode="?,???,??0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +319,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -316,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -422,6 +459,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -703,1973 +754,1168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G128" sqref="G128"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2">
-        <v>2015</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>127</v>
       </c>
       <c r="D2">
-        <v>127</v>
+        <v>636</v>
       </c>
       <c r="E2">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10303</v>
+      </c>
+      <c r="F2">
+        <v>50520</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3">
-        <v>2015</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
       <c r="D3">
-        <v>25</v>
+        <v>558</v>
       </c>
       <c r="E3">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2824</v>
+      </c>
+      <c r="F3">
+        <v>57173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4">
-        <v>2015</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
       <c r="D4">
-        <v>18</v>
+        <v>609</v>
       </c>
       <c r="E4">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>60213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
-        <v>2015</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
       <c r="D5">
-        <v>21</v>
+        <v>543</v>
       </c>
       <c r="E5">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3615</v>
+      </c>
+      <c r="F5">
+        <v>54659</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6">
-        <v>2015</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
       <c r="D6">
-        <v>12</v>
+        <v>384</v>
       </c>
       <c r="E6">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3641</v>
+      </c>
+      <c r="F6">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7">
-        <v>2015</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>27</v>
+      </c>
       <c r="D7">
-        <v>27</v>
+        <v>594</v>
       </c>
       <c r="E7">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3490</v>
+      </c>
+      <c r="F7">
+        <v>50128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8">
-        <v>2015</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>48</v>
+      </c>
       <c r="D8">
-        <v>48</v>
+        <v>669</v>
       </c>
       <c r="E8">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3789</v>
+      </c>
+      <c r="F8">
+        <v>62163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9">
-        <v>2015</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
+      <c r="C9">
+        <v>27</v>
+      </c>
       <c r="D9">
-        <v>27</v>
+        <v>843</v>
       </c>
       <c r="E9">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3213</v>
+      </c>
+      <c r="F9">
+        <v>67423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B10">
-        <v>2015</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
       <c r="D10">
-        <v>29</v>
+        <v>660</v>
       </c>
       <c r="E10">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3031</v>
+      </c>
+      <c r="F10">
+        <v>62899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11">
-        <v>2015</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
       <c r="D11">
-        <v>32</v>
+        <v>576</v>
       </c>
       <c r="E11">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2771</v>
+      </c>
+      <c r="F11">
+        <v>55463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12">
-        <v>2015</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>32</v>
+      </c>
       <c r="D12">
-        <v>32</v>
+        <v>606</v>
       </c>
       <c r="E12">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3089</v>
+      </c>
+      <c r="F12">
+        <v>60479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13">
-        <v>2015</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s">
         <v>11</v>
       </c>
+      <c r="C13">
+        <v>34</v>
+      </c>
       <c r="D13">
-        <v>34</v>
+        <v>522</v>
       </c>
       <c r="E13">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3490</v>
+      </c>
+      <c r="F13">
+        <v>49974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14">
-        <v>2015</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>45</v>
+      </c>
       <c r="D14">
-        <v>45</v>
+        <v>426</v>
       </c>
       <c r="E14">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3595</v>
+      </c>
+      <c r="F14">
+        <v>44140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15">
-        <v>2015</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
+      <c r="C15">
+        <v>65</v>
+      </c>
       <c r="D15">
-        <v>65</v>
+        <v>273</v>
       </c>
       <c r="E15">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4745</v>
+      </c>
+      <c r="F15">
+        <v>40888</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
-        <v>2015</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
+      <c r="C16">
+        <v>38</v>
+      </c>
       <c r="D16">
-        <v>38</v>
+        <v>300</v>
       </c>
       <c r="E16">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5514</v>
+      </c>
+      <c r="F16">
+        <v>37239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
-        <v>2015</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s">
         <v>15</v>
       </c>
+      <c r="C17">
+        <v>68</v>
+      </c>
       <c r="D17">
-        <v>68</v>
+        <v>288</v>
       </c>
       <c r="E17">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7125</v>
+      </c>
+      <c r="F17">
+        <v>30819</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18">
-        <v>2015</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s">
         <v>16</v>
       </c>
+      <c r="C18">
+        <v>74</v>
+      </c>
       <c r="D18">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="E18">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5694</v>
+      </c>
+      <c r="F18">
+        <v>18136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19">
-        <v>2015</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s">
         <v>17</v>
       </c>
+      <c r="C19">
+        <v>82</v>
+      </c>
       <c r="D19">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="E19">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6210</v>
+      </c>
+      <c r="F19">
+        <v>15325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
-        <v>2015</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s">
         <v>18</v>
       </c>
+      <c r="C20">
+        <v>91</v>
+      </c>
       <c r="D20">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="E20">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5757</v>
+      </c>
+      <c r="F20">
+        <v>13918</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21">
-        <v>2015</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>636</v>
       </c>
       <c r="E21">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10303</v>
+      </c>
+      <c r="F21">
+        <v>50520</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22">
-        <v>2015</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" t="s">
         <v>1</v>
       </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
       <c r="D22">
-        <v>4</v>
+        <v>558</v>
       </c>
       <c r="E22">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2824</v>
+      </c>
+      <c r="F22">
+        <v>57173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23">
-        <v>2015</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" t="s">
         <v>2</v>
       </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
       <c r="D23">
-        <v>3</v>
+        <v>609</v>
       </c>
       <c r="E23">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>60213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
-        <v>2015</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" t="s">
         <v>3</v>
       </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
       <c r="D24">
-        <v>2</v>
+        <v>543</v>
       </c>
       <c r="E24">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3615</v>
+      </c>
+      <c r="F24">
+        <v>54659</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>2015</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" t="s">
         <v>4</v>
       </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
       <c r="D25">
-        <v>3</v>
+        <v>384</v>
       </c>
       <c r="E25">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3641</v>
+      </c>
+      <c r="F25">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>2015</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" t="s">
         <v>5</v>
       </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
       <c r="D26">
-        <v>4</v>
+        <v>594</v>
       </c>
       <c r="E26">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3490</v>
+      </c>
+      <c r="F26">
+        <v>50128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27">
-        <v>2015</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" t="s">
         <v>6</v>
       </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
       <c r="D27">
-        <v>8</v>
+        <v>669</v>
       </c>
       <c r="E27">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3789</v>
+      </c>
+      <c r="F27">
+        <v>62163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B28">
-        <v>2015</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" t="s">
         <v>7</v>
       </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
       <c r="D28">
-        <v>2</v>
+        <v>843</v>
       </c>
       <c r="E28">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3213</v>
+      </c>
+      <c r="F28">
+        <v>67423</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
-      <c r="B29">
-        <v>2015</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" t="s">
         <v>8</v>
       </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
       <c r="D29">
-        <v>2</v>
+        <v>660</v>
       </c>
       <c r="E29">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3031</v>
+      </c>
+      <c r="F29">
+        <v>62899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
-      <c r="B30">
-        <v>2015</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" t="s">
         <v>9</v>
       </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
       <c r="D30">
-        <v>3</v>
+        <v>576</v>
       </c>
       <c r="E30">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2771</v>
+      </c>
+      <c r="F30">
+        <v>55463</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
-      <c r="B31">
-        <v>2015</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" t="s">
         <v>10</v>
       </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
       <c r="D31">
-        <v>4</v>
+        <v>606</v>
       </c>
       <c r="E31">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3089</v>
+      </c>
+      <c r="F31">
+        <v>60479</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
-      <c r="B32">
-        <v>2015</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" t="s">
         <v>11</v>
       </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
       <c r="D32">
-        <v>5</v>
+        <v>522</v>
       </c>
       <c r="E32">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3490</v>
+      </c>
+      <c r="F32">
+        <v>49974</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>24</v>
       </c>
-      <c r="B33">
-        <v>2015</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" t="s">
         <v>12</v>
       </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
       <c r="D33">
-        <v>6</v>
+        <v>426</v>
       </c>
       <c r="E33">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3595</v>
+      </c>
+      <c r="F33">
+        <v>44140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
-      <c r="B34">
-        <v>2015</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" t="s">
         <v>13</v>
       </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
       <c r="D34">
-        <v>8</v>
+        <v>273</v>
       </c>
       <c r="E34">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4745</v>
+      </c>
+      <c r="F34">
+        <v>40888</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>24</v>
       </c>
-      <c r="B35">
-        <v>2015</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" t="s">
         <v>14</v>
       </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
       <c r="D35">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="E35">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5514</v>
+      </c>
+      <c r="F35">
+        <v>37239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
-      <c r="B36">
-        <v>2015</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" t="s">
         <v>15</v>
       </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
       <c r="D36">
-        <v>6</v>
+        <v>288</v>
       </c>
       <c r="E36">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7125</v>
+      </c>
+      <c r="F36">
+        <v>30819</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>24</v>
       </c>
-      <c r="B37">
-        <v>2015</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" t="s">
         <v>16</v>
       </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
       <c r="D37">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="E37">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5694</v>
+      </c>
+      <c r="F37">
+        <v>18136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>24</v>
       </c>
-      <c r="B38">
-        <v>2015</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" t="s">
         <v>17</v>
       </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
       <c r="D38">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="E38">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6210</v>
+      </c>
+      <c r="F38">
+        <v>15325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>24</v>
       </c>
-      <c r="B39">
-        <v>2015</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" t="s">
         <v>18</v>
       </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
       <c r="D39">
-        <v>4</v>
+        <v>207</v>
       </c>
       <c r="E39">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5757</v>
+      </c>
+      <c r="F39">
+        <v>13918</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>29</v>
       </c>
-      <c r="B40">
-        <v>2015</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="E40">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10303</v>
+      </c>
+      <c r="F40">
+        <v>50520</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>29</v>
       </c>
-      <c r="B41">
-        <v>2015</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" t="s">
         <v>1</v>
       </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
       <c r="D41">
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="E41">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2824</v>
+      </c>
+      <c r="F41">
+        <v>57173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>29</v>
       </c>
-      <c r="B42">
-        <v>2015</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" t="s">
         <v>2</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>60213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>29</v>
       </c>
-      <c r="B43">
-        <v>2015</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B43" t="s">
         <v>3</v>
       </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
       <c r="D43">
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="E43">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3615</v>
+      </c>
+      <c r="F43">
+        <v>54659</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>29</v>
       </c>
-      <c r="B44">
-        <v>2015</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B44" t="s">
         <v>4</v>
       </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
       <c r="D44">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="E44">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3641</v>
+      </c>
+      <c r="F44">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>29</v>
       </c>
-      <c r="B45">
-        <v>2015</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B45" t="s">
         <v>5</v>
       </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
       <c r="D45">
-        <v>0</v>
+        <v>594</v>
       </c>
       <c r="E45">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3490</v>
+      </c>
+      <c r="F45">
+        <v>50128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>29</v>
       </c>
-      <c r="B46">
-        <v>2015</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B46" t="s">
         <v>6</v>
       </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
       <c r="D46">
-        <v>1</v>
+        <v>669</v>
       </c>
       <c r="E46">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3789</v>
+      </c>
+      <c r="F46">
+        <v>62163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>29</v>
       </c>
-      <c r="B47">
-        <v>2015</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" t="s">
         <v>7</v>
       </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
       <c r="D47">
-        <v>0</v>
+        <v>843</v>
       </c>
       <c r="E47">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3213</v>
+      </c>
+      <c r="F47">
+        <v>67423</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>29</v>
       </c>
-      <c r="B48">
-        <v>2015</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B48" t="s">
         <v>8</v>
       </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
       <c r="D48">
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="E48">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3031</v>
+      </c>
+      <c r="F48">
+        <v>62899</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>29</v>
       </c>
-      <c r="B49">
-        <v>2015</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B49" t="s">
         <v>9</v>
       </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
       <c r="D49">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="E49">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2771</v>
+      </c>
+      <c r="F49">
+        <v>55463</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>29</v>
       </c>
-      <c r="B50">
-        <v>2015</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B50" t="s">
         <v>10</v>
       </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
       <c r="D50">
-        <v>0</v>
+        <v>606</v>
       </c>
       <c r="E50">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3089</v>
+      </c>
+      <c r="F50">
+        <v>60479</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>29</v>
       </c>
-      <c r="B51">
-        <v>2015</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B51" t="s">
         <v>11</v>
       </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
       <c r="D51">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="E51">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3490</v>
+      </c>
+      <c r="F51">
+        <v>49974</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>29</v>
       </c>
-      <c r="B52">
-        <v>2015</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B52" t="s">
         <v>12</v>
       </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
       <c r="D52">
-        <v>1</v>
+        <v>426</v>
       </c>
       <c r="E52">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3595</v>
+      </c>
+      <c r="F52">
+        <v>44140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>29</v>
       </c>
-      <c r="B53">
-        <v>2015</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B53" t="s">
         <v>13</v>
       </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
       <c r="D53">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="E53">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4745</v>
+      </c>
+      <c r="F53">
+        <v>40888</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>29</v>
       </c>
-      <c r="B54">
-        <v>2015</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B54" t="s">
         <v>14</v>
       </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
       <c r="D54">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E54">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5514</v>
+      </c>
+      <c r="F54">
+        <v>37239</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>29</v>
       </c>
-      <c r="B55">
-        <v>2015</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B55" t="s">
         <v>15</v>
       </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
       <c r="D55">
-        <v>1</v>
+        <v>288</v>
       </c>
       <c r="E55">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7125</v>
+      </c>
+      <c r="F55">
+        <v>30819</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>29</v>
       </c>
-      <c r="B56">
-        <v>2015</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B56" t="s">
         <v>16</v>
       </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
       <c r="D56">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E56">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5694</v>
+      </c>
+      <c r="F56">
+        <v>18136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>29</v>
       </c>
-      <c r="B57">
-        <v>2015</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B57" t="s">
         <v>17</v>
       </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
       <c r="D57">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="E57">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6210</v>
+      </c>
+      <c r="F57">
+        <v>15325</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>29</v>
       </c>
-      <c r="B58">
-        <v>2015</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B58" t="s">
         <v>18</v>
       </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
       <c r="D58">
-        <v>3</v>
+        <v>207</v>
       </c>
       <c r="E58">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>23</v>
-      </c>
-      <c r="B59">
-        <v>2016</v>
-      </c>
-      <c r="C59" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>137</v>
-      </c>
-      <c r="E59">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>23</v>
-      </c>
-      <c r="B60">
-        <v>2016</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>35</v>
-      </c>
-      <c r="E60">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61">
-        <v>2016</v>
-      </c>
-      <c r="C61" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61">
-        <v>28</v>
-      </c>
-      <c r="E61">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>23</v>
-      </c>
-      <c r="B62">
-        <v>2016</v>
-      </c>
-      <c r="C62" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62">
-        <v>31</v>
-      </c>
-      <c r="E62">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>23</v>
-      </c>
-      <c r="B63">
-        <v>2016</v>
-      </c>
-      <c r="C63" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63">
-        <v>22</v>
-      </c>
-      <c r="E63">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>23</v>
-      </c>
-      <c r="B64">
-        <v>2016</v>
-      </c>
-      <c r="C64" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64">
-        <v>37</v>
-      </c>
-      <c r="E64">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>23</v>
-      </c>
-      <c r="B65">
-        <v>2016</v>
-      </c>
-      <c r="C65" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65">
-        <v>58</v>
-      </c>
-      <c r="E65">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>23</v>
-      </c>
-      <c r="B66">
-        <v>2016</v>
-      </c>
-      <c r="C66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66">
-        <v>37</v>
-      </c>
-      <c r="E66">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>23</v>
-      </c>
-      <c r="B67">
-        <v>2016</v>
-      </c>
-      <c r="C67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67">
-        <v>39</v>
-      </c>
-      <c r="E67">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68">
-        <v>2016</v>
-      </c>
-      <c r="C68" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68">
-        <v>42</v>
-      </c>
-      <c r="E68">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69">
-        <v>2016</v>
-      </c>
-      <c r="C69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69">
-        <v>42</v>
-      </c>
-      <c r="E69">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>23</v>
-      </c>
-      <c r="B70">
-        <v>2016</v>
-      </c>
-      <c r="C70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70">
-        <v>44</v>
-      </c>
-      <c r="E70">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71">
-        <v>2016</v>
-      </c>
-      <c r="C71" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71">
-        <v>55</v>
-      </c>
-      <c r="E71">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72">
-        <v>2016</v>
-      </c>
-      <c r="C72" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72">
-        <v>75</v>
-      </c>
-      <c r="E72">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>23</v>
-      </c>
-      <c r="B73">
-        <v>2016</v>
-      </c>
-      <c r="C73" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73">
-        <v>48</v>
-      </c>
-      <c r="E73">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>23</v>
-      </c>
-      <c r="B74">
-        <v>2016</v>
-      </c>
-      <c r="C74" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74">
-        <v>78</v>
-      </c>
-      <c r="E74">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>23</v>
-      </c>
-      <c r="B75">
-        <v>2016</v>
-      </c>
-      <c r="C75" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75">
-        <v>84</v>
-      </c>
-      <c r="E75">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>23</v>
-      </c>
-      <c r="B76">
-        <v>2016</v>
-      </c>
-      <c r="C76" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76">
-        <v>92</v>
-      </c>
-      <c r="E76">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>23</v>
-      </c>
-      <c r="B77">
-        <v>2016</v>
-      </c>
-      <c r="C77" t="s">
-        <v>18</v>
-      </c>
-      <c r="D77">
-        <v>101</v>
-      </c>
-      <c r="E77">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>24</v>
-      </c>
-      <c r="B78">
-        <v>2016</v>
-      </c>
-      <c r="C78" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>22</v>
-      </c>
-      <c r="E78">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79">
-        <v>2016</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>14</v>
-      </c>
-      <c r="E79">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>24</v>
-      </c>
-      <c r="B80">
-        <v>2016</v>
-      </c>
-      <c r="C80" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80">
-        <v>13</v>
-      </c>
-      <c r="E80">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>24</v>
-      </c>
-      <c r="B81">
-        <v>2016</v>
-      </c>
-      <c r="C81" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81">
-        <v>12</v>
-      </c>
-      <c r="E81">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>24</v>
-      </c>
-      <c r="B82">
-        <v>2016</v>
-      </c>
-      <c r="C82" t="s">
-        <v>4</v>
-      </c>
-      <c r="D82">
-        <v>13</v>
-      </c>
-      <c r="E82">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>24</v>
-      </c>
-      <c r="B83">
-        <v>2016</v>
-      </c>
-      <c r="C83" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83">
-        <v>14</v>
-      </c>
-      <c r="E83">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>24</v>
-      </c>
-      <c r="B84">
-        <v>2016</v>
-      </c>
-      <c r="C84" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84">
-        <v>18</v>
-      </c>
-      <c r="E84">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>24</v>
-      </c>
-      <c r="B85">
-        <v>2016</v>
-      </c>
-      <c r="C85" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85">
-        <v>12</v>
-      </c>
-      <c r="E85">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>24</v>
-      </c>
-      <c r="B86">
-        <v>2016</v>
-      </c>
-      <c r="C86" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86">
-        <v>12</v>
-      </c>
-      <c r="E86">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>24</v>
-      </c>
-      <c r="B87">
-        <v>2016</v>
-      </c>
-      <c r="C87" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87">
-        <v>13</v>
-      </c>
-      <c r="E87">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>24</v>
-      </c>
-      <c r="B88">
-        <v>2016</v>
-      </c>
-      <c r="C88" t="s">
-        <v>10</v>
-      </c>
-      <c r="D88">
-        <v>14</v>
-      </c>
-      <c r="E88">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>24</v>
-      </c>
-      <c r="B89">
-        <v>2016</v>
-      </c>
-      <c r="C89" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89">
-        <v>15</v>
-      </c>
-      <c r="E89">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>24</v>
-      </c>
-      <c r="B90">
-        <v>2016</v>
-      </c>
-      <c r="C90" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90">
-        <v>16</v>
-      </c>
-      <c r="E90">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>24</v>
-      </c>
-      <c r="B91">
-        <v>2016</v>
-      </c>
-      <c r="C91" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91">
-        <v>18</v>
-      </c>
-      <c r="E91">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>24</v>
-      </c>
-      <c r="B92">
-        <v>2016</v>
-      </c>
-      <c r="C92" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92">
-        <v>15</v>
-      </c>
-      <c r="E92">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>24</v>
-      </c>
-      <c r="B93">
-        <v>2016</v>
-      </c>
-      <c r="C93" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93">
-        <v>16</v>
-      </c>
-      <c r="E93">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>24</v>
-      </c>
-      <c r="B94">
-        <v>2016</v>
-      </c>
-      <c r="C94" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94">
-        <v>15</v>
-      </c>
-      <c r="E94">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>24</v>
-      </c>
-      <c r="B95">
-        <v>2016</v>
-      </c>
-      <c r="C95" t="s">
-        <v>17</v>
-      </c>
-      <c r="D95">
-        <v>15</v>
-      </c>
-      <c r="E95">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>24</v>
-      </c>
-      <c r="B96">
-        <v>2016</v>
-      </c>
-      <c r="C96" t="s">
-        <v>18</v>
-      </c>
-      <c r="D96">
-        <v>14</v>
-      </c>
-      <c r="E96">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>29</v>
-      </c>
-      <c r="B97">
-        <v>2016</v>
-      </c>
-      <c r="C97" t="s">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>10</v>
-      </c>
-      <c r="E97">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>29</v>
-      </c>
-      <c r="B98">
-        <v>2016</v>
-      </c>
-      <c r="C98" t="s">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>10</v>
-      </c>
-      <c r="E98">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>29</v>
-      </c>
-      <c r="B99">
-        <v>2016</v>
-      </c>
-      <c r="C99" t="s">
-        <v>2</v>
-      </c>
-      <c r="D99">
-        <v>10</v>
-      </c>
-      <c r="E99">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>29</v>
-      </c>
-      <c r="B100">
-        <v>2016</v>
-      </c>
-      <c r="C100" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100">
-        <v>10</v>
-      </c>
-      <c r="E100">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>29</v>
-      </c>
-      <c r="B101">
-        <v>2016</v>
-      </c>
-      <c r="C101" t="s">
-        <v>4</v>
-      </c>
-      <c r="D101">
-        <v>10</v>
-      </c>
-      <c r="E101">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>29</v>
-      </c>
-      <c r="B102">
-        <v>2016</v>
-      </c>
-      <c r="C102" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102">
-        <v>10</v>
-      </c>
-      <c r="E102">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>29</v>
-      </c>
-      <c r="B103">
-        <v>2016</v>
-      </c>
-      <c r="C103" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103">
-        <v>11</v>
-      </c>
-      <c r="E103">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>29</v>
-      </c>
-      <c r="B104">
-        <v>2016</v>
-      </c>
-      <c r="C104" t="s">
-        <v>7</v>
-      </c>
-      <c r="D104">
-        <v>10</v>
-      </c>
-      <c r="E104">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>29</v>
-      </c>
-      <c r="B105">
-        <v>2016</v>
-      </c>
-      <c r="C105" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105">
-        <v>10</v>
-      </c>
-      <c r="E105">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>29</v>
-      </c>
-      <c r="B106">
-        <v>2016</v>
-      </c>
-      <c r="C106" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106">
-        <v>10</v>
-      </c>
-      <c r="E106">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>29</v>
-      </c>
-      <c r="B107">
-        <v>2016</v>
-      </c>
-      <c r="C107" t="s">
-        <v>10</v>
-      </c>
-      <c r="D107">
-        <v>10</v>
-      </c>
-      <c r="E107">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>29</v>
-      </c>
-      <c r="B108">
-        <v>2016</v>
-      </c>
-      <c r="C108" t="s">
-        <v>11</v>
-      </c>
-      <c r="D108">
-        <v>10</v>
-      </c>
-      <c r="E108">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>29</v>
-      </c>
-      <c r="B109">
-        <v>2016</v>
-      </c>
-      <c r="C109" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109">
-        <v>11</v>
-      </c>
-      <c r="E109">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>29</v>
-      </c>
-      <c r="B110">
-        <v>2016</v>
-      </c>
-      <c r="C110" t="s">
-        <v>13</v>
-      </c>
-      <c r="D110">
-        <v>10</v>
-      </c>
-      <c r="E110">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>29</v>
-      </c>
-      <c r="B111">
-        <v>2016</v>
-      </c>
-      <c r="C111" t="s">
-        <v>14</v>
-      </c>
-      <c r="D111">
-        <v>10</v>
-      </c>
-      <c r="E111">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>29</v>
-      </c>
-      <c r="B112">
-        <v>2016</v>
-      </c>
-      <c r="C112" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112">
-        <v>11</v>
-      </c>
-      <c r="E112">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>29</v>
-      </c>
-      <c r="B113">
-        <v>2016</v>
-      </c>
-      <c r="C113" t="s">
-        <v>16</v>
-      </c>
-      <c r="D113">
-        <v>11</v>
-      </c>
-      <c r="E113">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>29</v>
-      </c>
-      <c r="B114">
-        <v>2016</v>
-      </c>
-      <c r="C114" t="s">
-        <v>17</v>
-      </c>
-      <c r="D114">
-        <v>12</v>
-      </c>
-      <c r="E114">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>29</v>
-      </c>
-      <c r="B115">
-        <v>2016</v>
-      </c>
-      <c r="C115" t="s">
-        <v>18</v>
-      </c>
-      <c r="D115">
-        <v>13</v>
-      </c>
-      <c r="E115">
-        <v>217</v>
+        <v>5757</v>
+      </c>
+      <c r="F58">
+        <v>13918</v>
       </c>
     </row>
   </sheetData>
@@ -3450,1178 +2696,317 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F58"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009B96CD-357C-4E9F-87E3-30A41B33D8F7}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>127</v>
+      </c>
+      <c r="C2" s="5">
+        <v>636</v>
+      </c>
+      <c r="D2" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
         <v>25</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="C3" s="42">
+        <v>558</v>
+      </c>
+      <c r="D3" s="12">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10">
+        <v>18</v>
+      </c>
+      <c r="C4" s="11">
+        <v>609</v>
+      </c>
+      <c r="D4" s="12">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
         <v>21</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>127</v>
-      </c>
-      <c r="D2">
-        <v>636</v>
-      </c>
-      <c r="E2">
-        <v>10303</v>
-      </c>
-      <c r="F2">
-        <v>50520</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <v>558</v>
-      </c>
-      <c r="E3">
-        <v>2824</v>
-      </c>
-      <c r="F3">
-        <v>57173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
+      <c r="C5" s="5">
+        <v>543</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
+        <v>384</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5">
+        <v>594</v>
+      </c>
+      <c r="D7" s="43">
+        <v>-6000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>48</v>
+      </c>
+      <c r="C8" s="5">
+        <v>669</v>
+      </c>
+      <c r="D8" s="6">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5">
+        <v>843</v>
+      </c>
+      <c r="D9" s="6">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5">
+        <v>660</v>
+      </c>
+      <c r="D10" s="6">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>32</v>
+      </c>
+      <c r="C11" s="5">
+        <v>576</v>
+      </c>
+      <c r="D11" s="6">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>32</v>
+      </c>
+      <c r="C12" s="5">
+        <v>606</v>
+      </c>
+      <c r="D12" s="6">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>34</v>
+      </c>
+      <c r="C13" s="5">
+        <v>522</v>
+      </c>
+      <c r="D13" s="6">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>45</v>
+      </c>
+      <c r="C14" s="5">
+        <v>426</v>
+      </c>
+      <c r="D14" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>65</v>
+      </c>
+      <c r="C15" s="5">
+        <v>273</v>
+      </c>
+      <c r="D15" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>38</v>
+      </c>
+      <c r="C16" s="5">
+        <v>300</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>68</v>
+      </c>
+      <c r="C17" s="5">
+        <v>288</v>
+      </c>
+      <c r="D17" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>74</v>
+      </c>
+      <c r="C18" s="5">
+        <v>153</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>82</v>
+      </c>
+      <c r="C19" s="5">
+        <v>123</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4">
-        <v>609</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>60213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>543</v>
-      </c>
-      <c r="E5">
-        <v>3615</v>
-      </c>
-      <c r="F5">
-        <v>54659</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>384</v>
-      </c>
-      <c r="E6">
-        <v>3641</v>
-      </c>
-      <c r="F6">
-        <v>44345</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>27</v>
-      </c>
-      <c r="D7">
-        <v>594</v>
-      </c>
-      <c r="E7">
-        <v>3490</v>
-      </c>
-      <c r="F7">
-        <v>50128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>48</v>
-      </c>
-      <c r="D8">
-        <v>669</v>
-      </c>
-      <c r="E8">
-        <v>3789</v>
-      </c>
-      <c r="F8">
-        <v>62163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>27</v>
-      </c>
-      <c r="D9">
-        <v>843</v>
-      </c>
-      <c r="E9">
-        <v>3213</v>
-      </c>
-      <c r="F9">
-        <v>67423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>29</v>
-      </c>
-      <c r="D10">
-        <v>660</v>
-      </c>
-      <c r="E10">
-        <v>3031</v>
-      </c>
-      <c r="F10">
-        <v>62899</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>576</v>
-      </c>
-      <c r="E11">
-        <v>2771</v>
-      </c>
-      <c r="F11">
-        <v>55463</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>32</v>
-      </c>
-      <c r="D12">
-        <v>606</v>
-      </c>
-      <c r="E12">
-        <v>3089</v>
-      </c>
-      <c r="F12">
-        <v>60479</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>34</v>
-      </c>
-      <c r="D13">
-        <v>522</v>
-      </c>
-      <c r="E13">
-        <v>3490</v>
-      </c>
-      <c r="F13">
-        <v>49974</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>45</v>
-      </c>
-      <c r="D14">
-        <v>426</v>
-      </c>
-      <c r="E14">
-        <v>3595</v>
-      </c>
-      <c r="F14">
-        <v>44140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>65</v>
-      </c>
-      <c r="D15">
-        <v>273</v>
-      </c>
-      <c r="E15">
-        <v>4745</v>
-      </c>
-      <c r="F15">
-        <v>40888</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>38</v>
-      </c>
-      <c r="D16">
-        <v>300</v>
-      </c>
-      <c r="E16">
-        <v>5514</v>
-      </c>
-      <c r="F16">
-        <v>37239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>68</v>
-      </c>
-      <c r="D17">
-        <v>288</v>
-      </c>
-      <c r="E17">
-        <v>7125</v>
-      </c>
-      <c r="F17">
-        <v>30819</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>74</v>
-      </c>
-      <c r="D18">
-        <v>153</v>
-      </c>
-      <c r="E18">
-        <v>5694</v>
-      </c>
-      <c r="F18">
-        <v>18136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <v>82</v>
-      </c>
-      <c r="D19">
-        <v>123</v>
-      </c>
-      <c r="E19">
-        <v>6210</v>
-      </c>
-      <c r="F19">
-        <v>15325</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="4">
         <v>91</v>
       </c>
-      <c r="D20">
+      <c r="C20" s="5">
         <v>207</v>
       </c>
-      <c r="E20">
-        <v>5757</v>
-      </c>
-      <c r="F20">
-        <v>13918</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>12</v>
-      </c>
-      <c r="D21">
-        <v>636</v>
-      </c>
-      <c r="E21">
-        <v>10303</v>
-      </c>
-      <c r="F21">
-        <v>50520</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22">
-        <v>558</v>
-      </c>
-      <c r="E22">
-        <v>2824</v>
-      </c>
-      <c r="F22">
-        <v>57173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>609</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>60213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>543</v>
-      </c>
-      <c r="E24">
-        <v>3615</v>
-      </c>
-      <c r="F24">
-        <v>54659</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>384</v>
-      </c>
-      <c r="E25">
-        <v>3641</v>
-      </c>
-      <c r="F25">
-        <v>44345</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="D26">
-        <v>594</v>
-      </c>
-      <c r="E26">
-        <v>3490</v>
-      </c>
-      <c r="F26">
-        <v>50128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27">
-        <v>8</v>
-      </c>
-      <c r="D27">
-        <v>669</v>
-      </c>
-      <c r="E27">
-        <v>3789</v>
-      </c>
-      <c r="F27">
-        <v>62163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>843</v>
-      </c>
-      <c r="E28">
-        <v>3213</v>
-      </c>
-      <c r="F28">
-        <v>67423</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>660</v>
-      </c>
-      <c r="E29">
-        <v>3031</v>
-      </c>
-      <c r="F29">
-        <v>62899</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
-        <v>576</v>
-      </c>
-      <c r="E30">
-        <v>2771</v>
-      </c>
-      <c r="F30">
-        <v>55463</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-      <c r="D31">
-        <v>606</v>
-      </c>
-      <c r="E31">
-        <v>3089</v>
-      </c>
-      <c r="F31">
-        <v>60479</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32">
-        <v>5</v>
-      </c>
-      <c r="D32">
-        <v>522</v>
-      </c>
-      <c r="E32">
-        <v>3490</v>
-      </c>
-      <c r="F32">
-        <v>49974</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33">
-        <v>6</v>
-      </c>
-      <c r="D33">
-        <v>426</v>
-      </c>
-      <c r="E33">
-        <v>3595</v>
-      </c>
-      <c r="F33">
-        <v>44140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34">
-        <v>8</v>
-      </c>
-      <c r="D34">
-        <v>273</v>
-      </c>
-      <c r="E34">
-        <v>4745</v>
-      </c>
-      <c r="F34">
-        <v>40888</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35">
-        <v>5</v>
-      </c>
-      <c r="D35">
-        <v>300</v>
-      </c>
-      <c r="E35">
-        <v>5514</v>
-      </c>
-      <c r="F35">
-        <v>37239</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36">
-        <v>6</v>
-      </c>
-      <c r="D36">
-        <v>288</v>
-      </c>
-      <c r="E36">
-        <v>7125</v>
-      </c>
-      <c r="F36">
-        <v>30819</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37">
-        <v>5</v>
-      </c>
-      <c r="D37">
-        <v>153</v>
-      </c>
-      <c r="E37">
-        <v>5694</v>
-      </c>
-      <c r="F37">
-        <v>18136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38">
-        <v>5</v>
-      </c>
-      <c r="D38">
-        <v>123</v>
-      </c>
-      <c r="E38">
-        <v>6210</v>
-      </c>
-      <c r="F38">
-        <v>15325</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39">
-        <v>4</v>
-      </c>
-      <c r="D39">
-        <v>207</v>
-      </c>
-      <c r="E39">
-        <v>5757</v>
-      </c>
-      <c r="F39">
-        <v>13918</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>636</v>
-      </c>
-      <c r="E40">
-        <v>10303</v>
-      </c>
-      <c r="F40">
-        <v>50520</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>558</v>
-      </c>
-      <c r="E41">
-        <v>2824</v>
-      </c>
-      <c r="F41">
-        <v>57173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" t="s">
-        <v>2</v>
-      </c>
-      <c r="F42">
-        <v>60213</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>543</v>
-      </c>
-      <c r="E43">
-        <v>3615</v>
-      </c>
-      <c r="F43">
-        <v>54659</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>384</v>
-      </c>
-      <c r="E44">
-        <v>3641</v>
-      </c>
-      <c r="F44">
-        <v>44345</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>594</v>
-      </c>
-      <c r="E45">
-        <v>3490</v>
-      </c>
-      <c r="F45">
-        <v>50128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>669</v>
-      </c>
-      <c r="E46">
-        <v>3789</v>
-      </c>
-      <c r="F46">
-        <v>62163</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>843</v>
-      </c>
-      <c r="E47">
-        <v>3213</v>
-      </c>
-      <c r="F47">
-        <v>67423</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>660</v>
-      </c>
-      <c r="E48">
-        <v>3031</v>
-      </c>
-      <c r="F48">
-        <v>62899</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>576</v>
-      </c>
-      <c r="E49">
-        <v>2771</v>
-      </c>
-      <c r="F49">
-        <v>55463</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>606</v>
-      </c>
-      <c r="E50">
-        <v>3089</v>
-      </c>
-      <c r="F50">
-        <v>60479</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>522</v>
-      </c>
-      <c r="E51">
-        <v>3490</v>
-      </c>
-      <c r="F51">
-        <v>49974</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>426</v>
-      </c>
-      <c r="E52">
-        <v>3595</v>
-      </c>
-      <c r="F52">
-        <v>44140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>273</v>
-      </c>
-      <c r="E53">
-        <v>4745</v>
-      </c>
-      <c r="F53">
-        <v>40888</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>300</v>
-      </c>
-      <c r="E54">
-        <v>5514</v>
-      </c>
-      <c r="F54">
-        <v>37239</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>29</v>
-      </c>
-      <c r="B55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>288</v>
-      </c>
-      <c r="E55">
-        <v>7125</v>
-      </c>
-      <c r="F55">
-        <v>30819</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>153</v>
-      </c>
-      <c r="E56">
-        <v>5694</v>
-      </c>
-      <c r="F56">
-        <v>18136</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="D57">
-        <v>123</v>
-      </c>
-      <c r="E57">
-        <v>6210</v>
-      </c>
-      <c r="F57">
-        <v>15325</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58">
-        <v>3</v>
-      </c>
-      <c r="D58">
-        <v>207</v>
-      </c>
-      <c r="E58">
-        <v>5757</v>
-      </c>
-      <c r="F58">
-        <v>13918</v>
-      </c>
+      <c r="D20" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3582517-898A-4E83-8FF5-D6610E682911}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -4679,13 +3064,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5505,6 +3890,1937 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BA0C53-A024-4465-9ADC-66E4AB5F6507}">
+  <dimension ref="A1:H77"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <v>127</v>
+      </c>
+      <c r="D2">
+        <v>636</v>
+      </c>
+      <c r="E2">
+        <f>$C2-($F2*2)-($G2*3)-($H2*4)</f>
+        <v>75</v>
+      </c>
+      <c r="F2">
+        <f>ROUND(0.25*$C2/2,0)</f>
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <f>ROUND(0.1*$C2/3,0)</f>
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <f>ROUND(0.05*$C2/4,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>558</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E20" si="0">$C3-($F3*2)-($G3*3)-($H3*4)</f>
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F20" si="1">ROUND(0.25*$C3/2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G20" si="2">ROUND(0.1*$C3/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H20" si="3">ROUND(0.05*$C3/4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>609</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>543</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>384</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F6" s="38">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>594</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>669</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>843</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>660</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>576</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>606</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>522</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>426</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>65</v>
+      </c>
+      <c r="D15">
+        <v>273</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>300</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>68</v>
+      </c>
+      <c r="D17">
+        <v>288</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>74</v>
+      </c>
+      <c r="D18">
+        <v>153</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>82</v>
+      </c>
+      <c r="D19">
+        <v>123</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>91</v>
+      </c>
+      <c r="D20">
+        <v>207</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21">
+        <v>127</v>
+      </c>
+      <c r="D21">
+        <v>636</v>
+      </c>
+      <c r="E21">
+        <v>80</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>558</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>609</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <v>543</v>
+      </c>
+      <c r="E24">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>384</v>
+      </c>
+      <c r="E25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>594</v>
+      </c>
+      <c r="E26">
+        <v>25</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>48</v>
+      </c>
+      <c r="D27">
+        <v>669</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>843</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <v>660</v>
+      </c>
+      <c r="E29">
+        <v>19</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>32</v>
+      </c>
+      <c r="D30">
+        <v>576</v>
+      </c>
+      <c r="E30">
+        <v>23</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <v>606</v>
+      </c>
+      <c r="E31">
+        <v>19</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>34</v>
+      </c>
+      <c r="D32">
+        <v>522</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>45</v>
+      </c>
+      <c r="D33">
+        <v>426</v>
+      </c>
+      <c r="E33">
+        <v>19</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>65</v>
+      </c>
+      <c r="D34">
+        <v>273</v>
+      </c>
+      <c r="E34">
+        <v>25</v>
+      </c>
+      <c r="F34">
+        <v>14</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>38</v>
+      </c>
+      <c r="D35">
+        <v>300</v>
+      </c>
+      <c r="E35">
+        <v>15</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>68</v>
+      </c>
+      <c r="D36">
+        <v>288</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <v>18</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>74</v>
+      </c>
+      <c r="D37">
+        <v>153</v>
+      </c>
+      <c r="E37">
+        <v>30</v>
+      </c>
+      <c r="F37">
+        <v>16</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38">
+        <v>82</v>
+      </c>
+      <c r="D38">
+        <v>123</v>
+      </c>
+      <c r="E38">
+        <v>29</v>
+      </c>
+      <c r="F38">
+        <v>19</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>91</v>
+      </c>
+      <c r="D39">
+        <v>207</v>
+      </c>
+      <c r="E39">
+        <v>22</v>
+      </c>
+      <c r="F39">
+        <v>21</v>
+      </c>
+      <c r="G39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40">
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <v>636</v>
+      </c>
+      <c r="E40">
+        <f>$C40-($F40*2)-($G40*3)-($H40*4)</f>
+        <v>7</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ref="F40:F58" si="4">ROUND(0.1*$C40/2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ref="G40:G58" si="5">ROUND(0.25*$C40/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ref="H40:H58" si="6">ROUND(0.05*$C40/4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>558</v>
+      </c>
+      <c r="E41">
+        <f>$C41-($F41*2)-($G41*3)-($H41*4)</f>
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>609</v>
+      </c>
+      <c r="E42">
+        <f>$C42-($F42*2)-($G42*3)-($H42*4)</f>
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="38">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>543</v>
+      </c>
+      <c r="E43" s="38">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>384</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ref="E44:E58" si="7">$C44-($F44*2)-($G44*3)-($H44*4)</f>
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>594</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>669</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>843</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>660</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>576</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>606</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>522</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>426</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+      <c r="D53">
+        <v>273</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>300</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>288</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>153</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>123</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>207</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>636</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>558</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>609</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>543</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>384</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>594</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>669</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>843</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>660</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>576</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>606</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>522</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>426</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>273</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>300</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>288</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>153</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>123</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>207</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B4 B23 B42" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -5536,7 +5852,7 @@
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6086,16 +6402,16 @@
         <v>42</v>
       </c>
       <c r="F1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>53</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>34</v>
@@ -6133,7 +6449,7 @@
         <v>11089.02718538338</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K2" s="31" t="s">
         <v>43</v>
@@ -6168,7 +6484,7 @@
         <v>1392.9381508991678</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K3" s="31" t="s">
         <v>43</v>
@@ -6203,7 +6519,7 @@
         <v>253.43696352192359</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K4" s="31" t="s">
         <v>46</v>
@@ -6238,7 +6554,7 @@
         <v>110.8902718538338</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K5" s="31" t="s">
         <v>43</v>
@@ -6273,7 +6589,7 @@
         <v>13.929381508991677</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6" s="31" t="s">
         <v>43</v>
@@ -6308,7 +6624,7 @@
         <v>2.5343696352192358</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K7" s="31" t="s">
         <v>46</v>
@@ -6340,7 +6656,7 @@
         <v>1.1860070415876287</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K8" s="31" t="s">
         <v>43</v>
@@ -6372,7 +6688,7 @@
         <v>0.14897920510466744</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" s="31" t="s">
         <v>43</v>
@@ -6405,7 +6721,7 @@
         <v>2.7105896514690211E-2</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K10" s="34" t="s">
         <v>46</v>
@@ -6437,7 +6753,7 @@
         <v>118.60070415876287</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K11" s="34" t="s">
         <v>43</v>
@@ -6469,7 +6785,7 @@
         <v>14.897920510466744</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K12" s="34" t="s">
         <v>43</v>
@@ -6502,7 +6818,7 @@
         <v>2.7105896514690211</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K13" s="34" t="s">
         <v>46</v>
@@ -6533,7 +6849,7 @@
       <c r="H14" s="37"/>
       <c r="I14" s="37"/>
       <c r="J14" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14" s="33" t="s">
         <v>43</v>
@@ -6564,7 +6880,7 @@
       <c r="H15" s="32"/>
       <c r="I15" s="32"/>
       <c r="J15" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15" s="34" t="s">
         <v>43</v>
@@ -6593,7 +6909,7 @@
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
       <c r="J16" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K16" s="34" t="s">
         <v>43</v>
@@ -6622,7 +6938,7 @@
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
       <c r="J17" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K17" s="34" t="s">
         <v>43</v>
@@ -6637,15 +6953,15 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="18"/>
     <col min="5" max="6" width="12" style="18" bestFit="1" customWidth="1"/>
@@ -6668,16 +6984,16 @@
         <v>42</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>53</v>
       </c>
       <c r="I1" s="23" t="s">
         <v>34</v>
@@ -6761,7 +7077,7 @@
         <v>8970</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>33</v>
@@ -6874,7 +7190,7 @@
         <v>8970</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>33</v>
@@ -6910,6 +7226,119 @@
       </c>
       <c r="J9" s="18" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <v>895</v>
+      </c>
+      <c r="C10">
+        <v>8970</v>
+      </c>
+      <c r="D10" s="18">
+        <v>10430.24799147</v>
+      </c>
+      <c r="E10" s="18">
+        <v>9532.9497786200009</v>
+      </c>
+      <c r="F10" s="18">
+        <v>11373.074832980001</v>
+      </c>
+      <c r="G10" s="18">
+        <v>9036.2563135700002</v>
+      </c>
+      <c r="H10" s="18">
+        <v>11929.24980749</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11">
+        <v>895</v>
+      </c>
+      <c r="C11">
+        <v>8970</v>
+      </c>
+      <c r="D11" s="18">
+        <v>10430.24799147</v>
+      </c>
+      <c r="E11" s="18">
+        <v>9512.2988375200002</v>
+      </c>
+      <c r="F11" s="18">
+        <v>11394.77359633</v>
+      </c>
+      <c r="G11" s="18">
+        <v>9004.1741812100008</v>
+      </c>
+      <c r="H11" s="18">
+        <v>11963.748704039999</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12">
+        <v>89</v>
+      </c>
+      <c r="C12">
+        <v>8970</v>
+      </c>
+      <c r="D12" s="18">
+        <v>1082.9541984099999</v>
+      </c>
+      <c r="E12" s="18">
+        <v>817.68609755</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1393.5588492700001</v>
+      </c>
+      <c r="G12" s="18">
+        <v>684.16751792000002</v>
+      </c>
+      <c r="H12" s="18">
+        <v>1585.4964559299999</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>8970</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
